--- a/data_tmp/Restaurants_Philippines.xlsx
+++ b/data_tmp/Restaurants_Philippines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Team12\data_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA3F22C-8714-49BA-A930-57C6EC18E5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB0CA5E-E3C4-4EAF-9035-240D388BC5A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{0AF86016-9BCC-4633-82FE-10845B604857}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="254">
   <si>
     <t>Name</t>
   </si>
@@ -722,6 +722,94 @@
   </si>
   <si>
     <t>Level 2, Centrio Mall, Claro M. Recto Ave, Cagayan de Oro, 9000 Misamis Oriental, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tahanan Bistro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 Loresville Drive Lores Farm Subdivision, San Roque, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burrow Café at Antipolo Beehouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HI-5 Arcade, Sumulong Memorial Circle, Bgy. San Jose, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow Bird Cafe x Kitchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot 3 Blk 2, Mission Hills Blvd., Mission Hills Subdivision, San Roque, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipulo Filipino </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Pacific Leadership Academy KM 27 Sumulong Highway, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vieux Chalet Swiss Restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>456 Taktak Road, Sitio Sampaguita, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cafe Lupe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot 2B and 2C, Barangay Mambugan, Sumulong Highway, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marison's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robinsons Place Antipolo, Sumulong Hwy, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggs for Breakfast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velada Estate, 21 Don Juan Street, Villa Cecilia Subdivision, Lower Antipolo, Mambugan, Lower, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiolo Bbq, Steaks, Pasta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2145 Sen. Lorenzo, L. Sumulong Memorial Circle, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>La Travieza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L. Sumulong Memorial Circle, Antipolo City, Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perot Resto Bar and Grill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lot 9 Block 4, Beverly Hills Subdivision, Brgy. Beverly Hills, Ortigas Ave Extension, Antipolo City, Philippines</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +817,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -744,6 +832,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -768,8 +862,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,7 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DF5919-3368-437A-9441-9690AF780893}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2247,11 +2346,11 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>127</v>
-      </c>
-      <c r="B83" t="s">
-        <v>128</v>
+      <c r="A83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -2261,11 +2360,11 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" t="s">
-        <v>130</v>
+      <c r="A84" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2275,11 +2374,11 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" t="s">
-        <v>132</v>
+      <c r="A85" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -2289,11 +2388,11 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" t="s">
-        <v>134</v>
+      <c r="A86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -2303,11 +2402,11 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>135</v>
-      </c>
-      <c r="B87" t="s">
-        <v>136</v>
+      <c r="A87" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -2317,11 +2416,11 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>137</v>
-      </c>
-      <c r="B88" t="s">
-        <v>138</v>
+      <c r="A88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -2331,11 +2430,11 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" t="s">
-        <v>140</v>
+      <c r="A89" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -2345,11 +2444,11 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" t="s">
-        <v>142</v>
+      <c r="A90" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -2359,11 +2458,11 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>143</v>
-      </c>
-      <c r="B91" t="s">
-        <v>144</v>
+      <c r="A91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -2373,11 +2472,11 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" t="s">
-        <v>146</v>
+      <c r="A92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -2387,11 +2486,11 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" t="s">
-        <v>148</v>
+      <c r="A93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C93">
         <v>2</v>
